--- a/Admin/Member_Info.xlsx
+++ b/Admin/Member_Info.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>In SD until August</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -256,12 +259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,17 +544,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="4" width="28.6640625" customWidth="1"/>
+    <col min="2" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
@@ -560,19 +564,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -616,21 +620,27 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E5" t="s">
@@ -647,12 +657,18 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -662,7 +678,7 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
@@ -679,10 +695,10 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
@@ -696,14 +712,20 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -713,11 +735,17 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -727,8 +755,14 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -741,8 +775,14 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -752,11 +792,17 @@
       <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -766,11 +812,17 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -783,11 +835,17 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Admin/Member_Info.xlsx
+++ b/Admin/Member_Info.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27217"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cflannery-MBP/Documents/Propulsion/Admin/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -174,13 +169,16 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2pm onward all summer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -357,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -534,36 +532,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -578,7 +576,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -633,7 +631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -653,7 +651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -671,7 +669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -691,7 +689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -708,7 +706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -728,7 +726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -748,7 +746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -764,8 +762,11 @@
       <c r="J11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -785,7 +786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -805,7 +806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -828,7 +829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>12</v>
       </c>

--- a/Admin/Member_Info.xlsx
+++ b/Admin/Member_Info.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27217"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamngo/Documents/UCSD/Rocketry/Propulsion/Admin/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -172,13 +177,19 @@
   </si>
   <si>
     <t>2pm onward all summer</t>
+  </si>
+  <si>
+    <t>Remotely available</t>
+  </si>
+  <si>
+    <t>Deputy New Member Project Lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,36 +543,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="20.625" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -576,7 +587,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -631,7 +642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -651,7 +662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -669,7 +680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -689,7 +700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -697,7 +708,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
@@ -705,8 +719,11 @@
       <c r="J8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -726,7 +743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -746,7 +763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -766,7 +783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -786,7 +803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -806,7 +823,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -829,7 +846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>12</v>
       </c>

--- a/Admin/Member_Info.xlsx
+++ b/Admin/Member_Info.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Admin/Member_Info.xlsx
+++ b/Admin/Member_Info.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cflannery-MBP/Documents/Propulsion/Admin/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22820" windowHeight="13380" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,7 +110,7 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Remotely available </t>
+    <t>Remotely available</t>
   </si>
   <si>
     <t>Inventor, Solidworks</t>
@@ -182,11 +194,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -195,22 +204,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -218,7 +212,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -236,7 +230,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cabril"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -255,84 +248,46 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -391,59 +346,326 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3B3838"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.6651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8325581395349"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3302325581395"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5023255813954"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8325581395349"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6651162790698"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4976744186047"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6651162790698"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.153488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -478,30 +700,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4"/>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5"/>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -510,65 +732,65 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0" t="s">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -577,22 +799,22 @@
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -601,21 +823,21 @@
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -624,114 +846,114 @@
       <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0" t="s">
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="0" t="s">
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="0" t="s">
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -739,12 +961,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:L2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>